--- a/output/fit_clients/fit_round_352.xlsx
+++ b/output/fit_clients/fit_round_352.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2491047834.832974</v>
+        <v>1601609662.475485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09387851179002116</v>
+        <v>0.09531253722872372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04521411491863185</v>
+        <v>0.0386160797229385</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1245523979.078003</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2364310647.794809</v>
+        <v>2302900951.77346</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1700683197459766</v>
+        <v>0.1578893174596132</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04954270455773623</v>
+        <v>0.04305038883423459</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1182155420.382503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3837446266.157761</v>
+        <v>3972309766.391009</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1039897163485356</v>
+        <v>0.1178623435343866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03633999667079395</v>
+        <v>0.02404770717634484</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>127</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1918723135.761974</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2958614212.115966</v>
+        <v>3990875942.616649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08297747701165539</v>
+        <v>0.07045544119554387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04343304106773921</v>
+        <v>0.0505906799241935</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>131</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1479307178.661432</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2389910358.551136</v>
+        <v>2581749209.507967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09089780264706394</v>
+        <v>0.136431771743775</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05322566319044203</v>
+        <v>0.03707087355879268</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1194955166.679659</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2344050083.922061</v>
+        <v>3136033506.922471</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08470047316056335</v>
+        <v>0.06473128135894833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0490884616265428</v>
+        <v>0.03665526965570207</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1172025069.978198</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3019757650.538245</v>
+        <v>3545893376.783656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2033796386529276</v>
+        <v>0.2050715609156525</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03116884727617694</v>
+        <v>0.02061528925541036</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>112</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1509878884.813113</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1998405856.338451</v>
+        <v>1801098227.549347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1906450150040465</v>
+        <v>0.1710189443814769</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0339721553615734</v>
+        <v>0.03223782505420931</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>999202955.0047836</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3922487333.286573</v>
+        <v>5019309778.869374</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1854618408807969</v>
+        <v>0.2130329054089953</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04597306478939753</v>
+        <v>0.05095045027689776</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>148</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1961243682.572416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4099414475.973277</v>
+        <v>3085571540.816621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1271501634460443</v>
+        <v>0.1884629555214216</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03150584556757471</v>
+        <v>0.03261591906482569</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>146</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2049707257.587723</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3006182614.987533</v>
+        <v>2895893916.552745</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1844920183363674</v>
+        <v>0.1539814402508806</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0406138563999387</v>
+        <v>0.04430505770342765</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>120</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1503091326.096092</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3905005600.562902</v>
+        <v>4690423133.138094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08587861274422012</v>
+        <v>0.06853091387588249</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01960368723733719</v>
+        <v>0.02245996973068923</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1952502860.045321</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3804367689.935598</v>
+        <v>2651133237.569053</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1378169867093706</v>
+        <v>0.1397731439574593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04242109112991301</v>
+        <v>0.03204078846780682</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>114</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1902183821.168347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1727152249.391756</v>
+        <v>1372814953.30192</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07680652967602959</v>
+        <v>0.08190722906440082</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03738202200956875</v>
+        <v>0.03489087667435654</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>863576261.7146027</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2830741070.724954</v>
+        <v>2671251148.909085</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08763111691088669</v>
+        <v>0.08805146999429986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04074687560434954</v>
+        <v>0.0340303720192923</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>70</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1415370536.638427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3800785124.211083</v>
+        <v>4287930585.961656</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1674096818543059</v>
+        <v>0.1082546294002774</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04918973618235976</v>
+        <v>0.05184412020626204</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>103</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1900392606.569663</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3706418061.730281</v>
+        <v>2922135011.373134</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1389704565992033</v>
+        <v>0.1657093626587435</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03167078831793579</v>
+        <v>0.02941600476511145</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>115</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1853209009.946295</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1190790749.122238</v>
+        <v>1326337025.227149</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1283667338679078</v>
+        <v>0.1561143793371517</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02247131292297529</v>
+        <v>0.02036675727202708</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>595395450.2264127</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2209272004.364822</v>
+        <v>2528283438.606814</v>
       </c>
       <c r="F20" t="n">
-        <v>0.114869490607625</v>
+        <v>0.1537762219782382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02900483296768507</v>
+        <v>0.03121661781060368</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>46</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1104636006.2319</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2703553378.00327</v>
+        <v>2020898991.735897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08723474061594308</v>
+        <v>0.07219644371643121</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03507448207659367</v>
+        <v>0.02987218541779207</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1351776657.685425</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2970913090.850883</v>
+        <v>2768821901.986423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1297591100172635</v>
+        <v>0.1063300460288089</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0514879075608189</v>
+        <v>0.0549995340171382</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>97</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1485456608.709732</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1169430393.082195</v>
+        <v>1324561568.450893</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1588145440067812</v>
+        <v>0.1389741723798838</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05304926084579546</v>
+        <v>0.03478175381715409</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584715238.2048612</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3515690759.595333</v>
+        <v>4147743030.601987</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1399089317294996</v>
+        <v>0.09596577805919604</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03748912911876317</v>
+        <v>0.03507489423953157</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>103</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1757845380.372428</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1352795960.779845</v>
+        <v>942574525.6544203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1014811209541618</v>
+        <v>0.09321229660945181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01872963501237468</v>
+        <v>0.02494194556094107</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676397963.2057451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1264074499.928379</v>
+        <v>1040951399.915917</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07676948106758053</v>
+        <v>0.1183305099728667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03280840013399436</v>
+        <v>0.03242201105148798</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>632037286.6588219</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3878573555.661788</v>
+        <v>3981045457.705283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1277814175032876</v>
+        <v>0.1281628511319996</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01789008497749695</v>
+        <v>0.01984271108208278</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1939286794.022973</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2928967014.836047</v>
+        <v>3301396321.99293</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1479621783110988</v>
+        <v>0.1275521104532092</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04984781817356004</v>
+        <v>0.04862378549902722</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>115</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1464483512.48749</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4222205083.43641</v>
+        <v>5139068227.730842</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1455267618334856</v>
+        <v>0.103190658483229</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02893187158609503</v>
+        <v>0.03380087435074236</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>156</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2111102543.183122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1778636467.579767</v>
+        <v>2123352106.138187</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113892492224307</v>
+        <v>0.1256563267131678</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03333153627971472</v>
+        <v>0.03574979949205974</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>889318246.0206709</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1094393225.250895</v>
+        <v>1013506600.013908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09485866167118652</v>
+        <v>0.1078026850824646</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04015108551369276</v>
+        <v>0.04281037366784177</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>547196588.9629316</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1232020039.069269</v>
+        <v>1163069695.677912</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08733208380448051</v>
+        <v>0.1008291603873768</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03784865524596409</v>
+        <v>0.03852259015698782</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>616010032.371895</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2371269584.268162</v>
+        <v>2275343272.787206</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1707533065355293</v>
+        <v>0.1847655376310041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05823048524107527</v>
+        <v>0.04119036556604582</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>107</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1185634841.299674</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1408078947.158954</v>
+        <v>1432936198.976846</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08152076559633586</v>
+        <v>0.1176008266659935</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02507442981196578</v>
+        <v>0.02743034818804032</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>704039444.524421</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>928468926.7405251</v>
+        <v>1345824532.370801</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0912837903547792</v>
+        <v>0.1037199548931292</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03450044529808661</v>
+        <v>0.03709711161632959</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>464234497.631388</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3190390789.045757</v>
+        <v>2104493848.599786</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1180748131403356</v>
+        <v>0.1696772148190693</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0241655597478953</v>
+        <v>0.02663671353875073</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1595195361.192996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2282355282.945046</v>
+        <v>2887602437.701402</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1009536023620786</v>
+        <v>0.07531919721302786</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04115589725650465</v>
+        <v>0.03492567995505406</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>92</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1141177707.595785</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1353315206.24622</v>
+        <v>1800258916.283442</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1200190993936127</v>
+        <v>0.1209495444325397</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03830938557069218</v>
+        <v>0.03262130419134174</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>676657673.1080048</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1519496250.4099</v>
+        <v>2107384928.027159</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1799239999483473</v>
+        <v>0.1419668584631713</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0291467551497069</v>
+        <v>0.02306075171696209</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>759748192.7210343</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1180647045.779285</v>
+        <v>1499879673.00145</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1443054573665868</v>
+        <v>0.1520839559489684</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04101632692889016</v>
+        <v>0.04013676534565049</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590323569.033597</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2774536534.642587</v>
+        <v>2565101271.944308</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1491393361734106</v>
+        <v>0.125357212096378</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04351535068251743</v>
+        <v>0.03426327700734993</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1387268265.699367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3179916749.976522</v>
+        <v>3708865935.630296</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1199954903963325</v>
+        <v>0.1029180326051752</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03632822543406036</v>
+        <v>0.03889575262871565</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1589958347.808522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2754131144.54017</v>
+        <v>1894530861.190408</v>
       </c>
       <c r="F43" t="n">
-        <v>0.136650361717362</v>
+        <v>0.1830053331129731</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02187838445195745</v>
+        <v>0.01860960064164841</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>125</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1377065595.386009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2036514483.070242</v>
+        <v>2300390431.008432</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09979030138898547</v>
+        <v>0.1011919183486426</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03562865063640303</v>
+        <v>0.03441523411176137</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1018257355.156265</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2310068065.042786</v>
+        <v>1737367173.702938</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1936877738669069</v>
+        <v>0.1846045122823935</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0372743791876942</v>
+        <v>0.05055406651007946</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1155034054.632852</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4279785501.526852</v>
+        <v>5442563978.842986</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1781426524667006</v>
+        <v>0.1373461886822971</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05323978317490959</v>
+        <v>0.05934827579973806</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>125</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2139892736.312186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3401978565.183881</v>
+        <v>5129405872.560895</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1627804350285302</v>
+        <v>0.1677598596323898</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05718124015572373</v>
+        <v>0.03894427525745661</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>94</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1700989247.841666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2869658119.935089</v>
+        <v>4554148417.414584</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07736182852512898</v>
+        <v>0.08538011271574381</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03065764231863834</v>
+        <v>0.02602224213127539</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>117</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1434829160.029625</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1213931266.126314</v>
+        <v>1721884648.136523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1267452205721783</v>
+        <v>0.1303666251936583</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02997505426672787</v>
+        <v>0.02788207546244335</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>606965709.5796105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3520815305.487228</v>
+        <v>4057245373.292219</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1656104461670913</v>
+        <v>0.1348950170307792</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0324271878797923</v>
+        <v>0.0485015902530448</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>120</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1760407675.550619</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1215709195.681044</v>
+        <v>1083407749.386279</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1599047910266455</v>
+        <v>0.1919381859030321</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04973481765065096</v>
+        <v>0.05198062727597646</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>607854646.8611342</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4047456357.815989</v>
+        <v>4269895883.880998</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1212526360234891</v>
+        <v>0.09077179674031466</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05706936977981012</v>
+        <v>0.06139656746900755</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>145</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2023728232.601462</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3327370451.683184</v>
+        <v>3731888886.913158</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1249903101788374</v>
+        <v>0.1306343462844232</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02281031502489865</v>
+        <v>0.02719702443045792</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>101</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1663685235.645075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3284888463.856524</v>
+        <v>4711425689.391645</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1545564481244553</v>
+        <v>0.1312030771613188</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04647131141543288</v>
+        <v>0.03755874586328091</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>115</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1642444239.859686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3713614786.451708</v>
+        <v>3801730614.876976</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1819304214628718</v>
+        <v>0.1618119708489353</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0309521661603622</v>
+        <v>0.02259611119569144</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1856807355.493634</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1334961855.137254</v>
+        <v>1326102391.475588</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1492408155785411</v>
+        <v>0.1128995437468899</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05049119269852082</v>
+        <v>0.03848866050789038</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>667480994.2872854</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4524261572.293289</v>
+        <v>3581504396.585388</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1734055164881791</v>
+        <v>0.1244684565770669</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01962363114750985</v>
+        <v>0.01977619797950773</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>112</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2262130918.542419</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1408590093.380047</v>
+        <v>1630362801.364207</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010657003141334</v>
+        <v>0.1721323450593996</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03828362302398258</v>
+        <v>0.03310892393806822</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>704295086.1687175</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5371830336.895073</v>
+        <v>3282016754.657734</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1080321831243619</v>
+        <v>0.09384386282175067</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03161594662937588</v>
+        <v>0.04320944760049983</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2685915078.214151</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2519407629.797396</v>
+        <v>3665005704.777689</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1972515569916957</v>
+        <v>0.1859007266028027</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0229598343257199</v>
+        <v>0.02707312401863575</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>109</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1259703834.844374</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2848787571.396009</v>
+        <v>3035163222.562585</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1362802449189604</v>
+        <v>0.135039793778696</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0238865358395437</v>
+        <v>0.028256849289533</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>121</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1424393780.436991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1721547725.920204</v>
+        <v>1447621865.901928</v>
       </c>
       <c r="F62" t="n">
-        <v>0.178202622905915</v>
+        <v>0.1347824054669793</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03002198698912263</v>
+        <v>0.04594801663934176</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>860773879.2837825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4822098718.064513</v>
+        <v>4222973355.88839</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09216713217588733</v>
+        <v>0.07996662788927142</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03896751722908563</v>
+        <v>0.03669980220658049</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>103</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2411049384.767901</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5326854856.856733</v>
+        <v>4794300339.455857</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1860668319898153</v>
+        <v>0.12550769918787</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03391461992676958</v>
+        <v>0.02326006455837716</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2663427557.629007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4282305596.844059</v>
+        <v>5471810406.582155</v>
       </c>
       <c r="F65" t="n">
-        <v>0.172236802438572</v>
+        <v>0.1351618940522631</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02359334641431497</v>
+        <v>0.02174330668118161</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>126</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2141152800.16791</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4377023474.26589</v>
+        <v>3929232459.155908</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1033342046941526</v>
+        <v>0.1305620443759326</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04000222577240677</v>
+        <v>0.04153221280627605</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>102</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2188511730.962195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2313177033.011826</v>
+        <v>2967633230.732067</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1028018812241169</v>
+        <v>0.09602170715863917</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04011112246116703</v>
+        <v>0.04228085940628887</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>113</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1156588592.897598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5070559581.742294</v>
+        <v>5621419419.782878</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09722227180525829</v>
+        <v>0.1348066917060469</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04715690433045081</v>
+        <v>0.03765271009245297</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2535279851.547354</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1953476972.786324</v>
+        <v>2087442174.187032</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1709130315939265</v>
+        <v>0.1825358576316883</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05216983432707629</v>
+        <v>0.04246339174677036</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>976738485.32078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2242719219.282619</v>
+        <v>3197289846.404169</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06855174779143985</v>
+        <v>0.09430217300636337</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04720051682150323</v>
+        <v>0.03021265184847387</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>101</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1121359537.42829</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3531896620.519944</v>
+        <v>4068541173.800779</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1237615040578247</v>
+        <v>0.1462680438619406</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02830767022741874</v>
+        <v>0.03262615348777493</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>128</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1765948306.410217</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1788132163.27228</v>
+        <v>2254889681.501431</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06705118175222737</v>
+        <v>0.08507518149071677</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05183476631665127</v>
+        <v>0.03377479139890055</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>894066062.1691207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2420159756.830867</v>
+        <v>2895848478.720833</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07540597539078553</v>
+        <v>0.07792042686057891</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03627674536077231</v>
+        <v>0.04154728112691078</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>134</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1210079927.515645</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3692727003.307104</v>
+        <v>3935055656.229469</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1478481195522995</v>
+        <v>0.1329734827431826</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02678494329797844</v>
+        <v>0.03108380957391992</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>120</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1846363507.18483</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1537550030.294544</v>
+        <v>2170620568.078839</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1235595799688122</v>
+        <v>0.166479120600017</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02646515546179571</v>
+        <v>0.03630508654655716</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>768775022.695652</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4681967788.046246</v>
+        <v>4654053167.090704</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07959546076665389</v>
+        <v>0.1162142545023462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03209389625721275</v>
+        <v>0.02852778939967891</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>79</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2340983907.367521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1705960763.426979</v>
+        <v>1750954807.234952</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1299845377841439</v>
+        <v>0.1500316136294134</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02091800703496412</v>
+        <v>0.02628967659419663</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>852980399.81865</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4792989540.102647</v>
+        <v>3225108980.566411</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1307514335824242</v>
+        <v>0.09748011283430034</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03451448494617691</v>
+        <v>0.035684925095776</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>122</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2396494679.05201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1168073729.239296</v>
+        <v>1594527589.30357</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1347145873833653</v>
+        <v>0.1738921040216038</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03087876038615012</v>
+        <v>0.03882139910718543</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>584036840.793155</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4632577480.923093</v>
+        <v>3864330941.87775</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08428071181361695</v>
+        <v>0.09552479981625298</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02334094610501978</v>
+        <v>0.03000541226621581</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>74</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2316288771.394812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4039709758.216428</v>
+        <v>3135173431.581903</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08680687910044672</v>
+        <v>0.09294235541424221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02694452852997005</v>
+        <v>0.02694537496402605</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2019854843.800277</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5028997835.532682</v>
+        <v>4666782693.588365</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1583193326268301</v>
+        <v>0.2045022912584048</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02598659983411678</v>
+        <v>0.01905275099027123</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>123</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2514498900.114174</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2177572662.75849</v>
+        <v>2189966606.29773</v>
       </c>
       <c r="F83" t="n">
-        <v>0.154355513741015</v>
+        <v>0.1461249672968322</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02909267567167006</v>
+        <v>0.03013888556600572</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1088786338.828448</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2508432548.061357</v>
+        <v>2523143322.355933</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07878457981858128</v>
+        <v>0.07766160440428228</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04878779359053614</v>
+        <v>0.04169644994776874</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1254216204.63429</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3344140359.461742</v>
+        <v>3547142422.659191</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1344658924228232</v>
+        <v>0.1607066047119917</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04817610369863127</v>
+        <v>0.03452384138387053</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>132</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1672070277.909639</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2462327563.638702</v>
+        <v>2457441837.849678</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1460880395060666</v>
+        <v>0.1240679093636805</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01695194403320457</v>
+        <v>0.02137661094484645</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1231163873.75357</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1472186620.742229</v>
+        <v>1163721184.984183</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1406326135680421</v>
+        <v>0.1294095766287756</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03074118799217862</v>
+        <v>0.04019343290867126</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>736093435.7199179</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2710651019.218439</v>
+        <v>3172263090.978581</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1404373208503606</v>
+        <v>0.172799795340734</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03328077082997678</v>
+        <v>0.0373401879905821</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>140</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1355325511.463256</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2496832819.844294</v>
+        <v>3241849607.989668</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1070852002095767</v>
+        <v>0.1105630994532343</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02919267557668839</v>
+        <v>0.03739310724841918</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>120</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1248416484.923846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1486400061.975168</v>
+        <v>1456844198.841358</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1118516072975874</v>
+        <v>0.1040434153695898</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04622139452886431</v>
+        <v>0.03790686369477985</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>743200007.2197747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1533166596.609314</v>
+        <v>1426804788.20446</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1704565257559175</v>
+        <v>0.1564403238723737</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06023164853184267</v>
+        <v>0.05238703906472838</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>766583332.8100374</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2463747019.704935</v>
+        <v>2557390836.355377</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08074677825283989</v>
+        <v>0.1089419960332444</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03336605322952222</v>
+        <v>0.03852571436107727</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>95</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1231873491.081144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4970881392.946342</v>
+        <v>3594931830.563826</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1301177942839892</v>
+        <v>0.1203788685177844</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05035622174102155</v>
+        <v>0.03586529869673502</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>104</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2485440634.33459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1823693167.944361</v>
+        <v>2332141707.784129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1016352508889233</v>
+        <v>0.1032315615895518</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03002786890174306</v>
+        <v>0.02785510838455271</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>911846559.3686411</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3116817224.171561</v>
+        <v>2698774771.366355</v>
       </c>
       <c r="F95" t="n">
-        <v>0.131830393195302</v>
+        <v>0.1249247332847532</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05107297115544911</v>
+        <v>0.03493011093783675</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>88</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1558408603.334673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1514377452.585984</v>
+        <v>1866945811.495681</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1250030600102895</v>
+        <v>0.1311009250558472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04646667838592648</v>
+        <v>0.03607127007950058</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>757188765.1200268</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4953361260.313451</v>
+        <v>4837049087.209231</v>
       </c>
       <c r="F97" t="n">
-        <v>0.13045402172158</v>
+        <v>0.1654017489346754</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02246107164914341</v>
+        <v>0.02923250917429912</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>114</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2476680763.216736</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3070364603.367647</v>
+        <v>3118149119.860859</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09370073196417783</v>
+        <v>0.08983366442137174</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02118362176312089</v>
+        <v>0.02146510098450682</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1535182291.164232</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3195236236.708639</v>
+        <v>2511278248.258693</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1169614060826739</v>
+        <v>0.09775687393416324</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02173316352447883</v>
+        <v>0.02163404809390158</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>111</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1597618118.504172</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2928190629.743449</v>
+        <v>3381450094.444613</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1381036492133277</v>
+        <v>0.1699846155594182</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663577517722155</v>
+        <v>0.02084761154640192</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>110</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1464095299.988235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2655876246.462829</v>
+        <v>2998329356.390522</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1648739807157346</v>
+        <v>0.2171602377660547</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04936559418849225</v>
+        <v>0.05320177271874058</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>143</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1327938166.794291</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_352.xlsx
+++ b/output/fit_clients/fit_round_352.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1601609662.475485</v>
+        <v>1572036164.194425</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09531253722872372</v>
+        <v>0.1024724085978</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0386160797229385</v>
+        <v>0.02736929730206325</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2302900951.77346</v>
+        <v>1844640832.780423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1578893174596132</v>
+        <v>0.1726885585567875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04305038883423459</v>
+        <v>0.05015759669458437</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3972309766.391009</v>
+        <v>4669132172.964812</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1178623435343866</v>
+        <v>0.1484600508126221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02404770717634484</v>
+        <v>0.02460273023513838</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3990875942.616649</v>
+        <v>3590798442.991488</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07045544119554387</v>
+        <v>0.07480586867054219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0505906799241935</v>
+        <v>0.04778842598030048</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2581749209.507967</v>
+        <v>2433866712.302883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136431771743775</v>
+        <v>0.1093045739494485</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03707087355879268</v>
+        <v>0.04301999973048917</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3136033506.922471</v>
+        <v>2405638453.922202</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06473128135894833</v>
+        <v>0.06325171512037735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03665526965570207</v>
+        <v>0.0361493804938354</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3545893376.783656</v>
+        <v>3554126295.651915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2050715609156525</v>
+        <v>0.2210062485996996</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02061528925541036</v>
+        <v>0.02034202756266958</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1801098227.549347</v>
+        <v>1533720200.52536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1710189443814769</v>
+        <v>0.1959221290082785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03223782505420931</v>
+        <v>0.02709408502100201</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5019309778.869374</v>
+        <v>3728522680.505094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2130329054089953</v>
+        <v>0.1346213393084775</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05095045027689776</v>
+        <v>0.05299548476005692</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3085571540.816621</v>
+        <v>3768733067.627825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1884629555214216</v>
+        <v>0.1724306651470731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03261591906482569</v>
+        <v>0.03568578465581505</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2895893916.552745</v>
+        <v>3003895821.929791</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1539814402508806</v>
+        <v>0.1595948307062206</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04430505770342765</v>
+        <v>0.04564911902658021</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4690423133.138094</v>
+        <v>3845761418.137358</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06853091387588249</v>
+        <v>0.08243806879687639</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02245996973068923</v>
+        <v>0.02073501427092056</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2651133237.569053</v>
+        <v>3424114697.138032</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1397731439574593</v>
+        <v>0.1254546879161372</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03204078846780682</v>
+        <v>0.04070988850429823</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1372814953.30192</v>
+        <v>1228161942.019899</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08190722906440082</v>
+        <v>0.08861886857879449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03489087667435654</v>
+        <v>0.04857272672100048</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2671251148.909085</v>
+        <v>2846382354.261783</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08805146999429986</v>
+        <v>0.1062095666241473</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0340303720192923</v>
+        <v>0.03921856321934456</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4287930585.961656</v>
+        <v>3448586101.162893</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1082546294002774</v>
+        <v>0.1198323559992947</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05184412020626204</v>
+        <v>0.03470197504518085</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2922135011.373134</v>
+        <v>2700269901.679689</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1657093626587435</v>
+        <v>0.1143023619577418</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02941600476511145</v>
+        <v>0.02952181729522984</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1326337025.227149</v>
+        <v>1264613313.613813</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1561143793371517</v>
+        <v>0.1419839544942331</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02036675727202708</v>
+        <v>0.01975944639869865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2528283438.606814</v>
+        <v>2592374697.904605</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1537762219782382</v>
+        <v>0.1458599303852183</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03121661781060368</v>
+        <v>0.02289810611914589</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2020898991.735897</v>
+        <v>2636187277.853154</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07219644371643121</v>
+        <v>0.09003642460126692</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02987218541779207</v>
+        <v>0.03112525692317612</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2768821901.986423</v>
+        <v>2685524336.711261</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1063300460288089</v>
+        <v>0.1083117602232814</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0549995340171382</v>
+        <v>0.04057806530687584</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1324561568.450893</v>
+        <v>1419243948.628781</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1389741723798838</v>
+        <v>0.146558636033982</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03478175381715409</v>
+        <v>0.03672511587273759</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4147743030.601987</v>
+        <v>3145129771.068808</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09596577805919604</v>
+        <v>0.09051833447450229</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03507489423953157</v>
+        <v>0.02512332724762655</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>942574525.6544203</v>
+        <v>1251262868.217812</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09321229660945181</v>
+        <v>0.09961010182199086</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02494194556094107</v>
+        <v>0.02436272942538008</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1040951399.915917</v>
+        <v>1208234222.168795</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1183305099728667</v>
+        <v>0.1249724703922692</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03242201105148798</v>
+        <v>0.03147873010594524</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3981045457.705283</v>
+        <v>3376731528.542116</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1281628511319996</v>
+        <v>0.1351785068788451</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01984271108208278</v>
+        <v>0.02174040403115681</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3301396321.99293</v>
+        <v>2545449510.121734</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1275521104532092</v>
+        <v>0.09953029266821425</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04862378549902722</v>
+        <v>0.03400112743768783</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5139068227.730842</v>
+        <v>4063715929.411412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.103190658483229</v>
+        <v>0.1316707834021437</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03380087435074236</v>
+        <v>0.04118581457901462</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2123352106.138187</v>
+        <v>2278107361.224629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1256563267131678</v>
+        <v>0.1220092250561445</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03574979949205974</v>
+        <v>0.03293324734044443</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1013506600.013908</v>
+        <v>1105001457.182221</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078026850824646</v>
+        <v>0.07465328626405057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04281037366784177</v>
+        <v>0.04497574970395399</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1163069695.677912</v>
+        <v>1703873281.161445</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008291603873768</v>
+        <v>0.07948746513419062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03852259015698782</v>
+        <v>0.02995712916670218</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2275343272.787206</v>
+        <v>2460847747.722395</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1847655376310041</v>
+        <v>0.2061312065040746</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04119036556604582</v>
+        <v>0.04969057886914006</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1432936198.976846</v>
+        <v>1012859814.081812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1176008266659935</v>
+        <v>0.0958379150678316</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02743034818804032</v>
+        <v>0.0238455531905086</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345824532.370801</v>
+        <v>980705700.1844097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1037199548931292</v>
+        <v>0.1084308406540772</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03709711161632959</v>
+        <v>0.03702711966651283</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2104493848.599786</v>
+        <v>2823588060.751599</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1696772148190693</v>
+        <v>0.1731210607942391</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02663671353875073</v>
+        <v>0.02254001247064419</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2887602437.701402</v>
+        <v>2671118822.667899</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07531919721302786</v>
+        <v>0.07335823029794644</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03492567995505406</v>
+        <v>0.02835216252443844</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1800258916.283442</v>
+        <v>1938434274.585165</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1209495444325397</v>
+        <v>0.1054600454087157</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03262130419134174</v>
+        <v>0.02403431879504173</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2107384928.027159</v>
+        <v>1427886353.481528</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1419668584631713</v>
+        <v>0.1659604532743353</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02306075171696209</v>
+        <v>0.02541666261038059</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1499879673.00145</v>
+        <v>1544808660.24097</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1520839559489684</v>
+        <v>0.1255929394714291</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04013676534565049</v>
+        <v>0.04977905562780069</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2565101271.944308</v>
+        <v>2720741237.529589</v>
       </c>
       <c r="F41" t="n">
-        <v>0.125357212096378</v>
+        <v>0.1289425073812333</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03426327700734993</v>
+        <v>0.0423299570651027</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3708865935.630296</v>
+        <v>3447540948.855753</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1029180326051752</v>
+        <v>0.08398979077828625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03889575262871565</v>
+        <v>0.0466429851522714</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1894530861.190408</v>
+        <v>2946000356.273646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1830053331129731</v>
+        <v>0.1649342395016163</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01860960064164841</v>
+        <v>0.0158270698356792</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2300390431.008432</v>
+        <v>1956887319.513566</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011919183486426</v>
+        <v>0.07915830257821395</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03441523411176137</v>
+        <v>0.02439282548636217</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1737367173.702938</v>
+        <v>2509755295.994134</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1846045122823935</v>
+        <v>0.1549699828533428</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05055406651007946</v>
+        <v>0.0562727687452879</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5442563978.842986</v>
+        <v>4884849203.771799</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1373461886822971</v>
+        <v>0.1664450265397237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05934827579973806</v>
+        <v>0.04206225879096542</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5129405872.560895</v>
+        <v>3947940234.121648</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1677598596323898</v>
+        <v>0.1529137952726249</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03894427525745661</v>
+        <v>0.05708151727427822</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4554148417.414584</v>
+        <v>3898761332.584374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08538011271574381</v>
+        <v>0.07127433860616535</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02602224213127539</v>
+        <v>0.03583098848105046</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1721884648.136523</v>
+        <v>1378146265.437829</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1303666251936583</v>
+        <v>0.1657893391151584</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02788207546244335</v>
+        <v>0.03669924835927255</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4057245373.292219</v>
+        <v>3231050162.65302</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1348950170307792</v>
+        <v>0.1358652074482478</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0485015902530448</v>
+        <v>0.0443441242378773</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083407749.386279</v>
+        <v>1302751280.243885</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1919381859030321</v>
+        <v>0.1960364679992463</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05198062727597646</v>
+        <v>0.05223944229679553</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4269895883.880998</v>
+        <v>3832664916.612671</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09077179674031466</v>
+        <v>0.08589232164042433</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06139656746900755</v>
+        <v>0.04269010967421939</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3731888886.913158</v>
+        <v>3446823979.229447</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1306343462844232</v>
+        <v>0.1850734023012531</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02719702443045792</v>
+        <v>0.02912819593552559</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4711425689.391645</v>
+        <v>3751493459.973285</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1312030771613188</v>
+        <v>0.1549381739533355</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03755874586328091</v>
+        <v>0.03495483388557816</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3801730614.876976</v>
+        <v>4887012951.54291</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1618119708489353</v>
+        <v>0.1979182955367931</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02259611119569144</v>
+        <v>0.02459246460629993</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1326102391.475588</v>
+        <v>1692249455.052972</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1128995437468899</v>
+        <v>0.1400411991316108</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03848866050789038</v>
+        <v>0.043619507001536</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3581504396.585388</v>
+        <v>3239245115.990909</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244684565770669</v>
+        <v>0.1275625053279311</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01977619797950773</v>
+        <v>0.01870485003153273</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1630362801.364207</v>
+        <v>1786292776.559508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1721323450593996</v>
+        <v>0.1612250431104359</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03310892393806822</v>
+        <v>0.03431810873593226</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3282016754.657734</v>
+        <v>5072818293.604577</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09384386282175067</v>
+        <v>0.092312176364751</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04320944760049983</v>
+        <v>0.03946191289461653</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3665005704.777689</v>
+        <v>3571206089.786216</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1859007266028027</v>
+        <v>0.1903408259456407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02707312401863575</v>
+        <v>0.02099901305247749</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3035163222.562585</v>
+        <v>3160635480.90276</v>
       </c>
       <c r="F61" t="n">
-        <v>0.135039793778696</v>
+        <v>0.1427852235714509</v>
       </c>
       <c r="G61" t="n">
-        <v>0.028256849289533</v>
+        <v>0.02214083412359602</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1447621865.901928</v>
+        <v>1316499615.152377</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1347824054669793</v>
+        <v>0.1262116567013718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04594801663934176</v>
+        <v>0.04727276816846696</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4222973355.88839</v>
+        <v>3741446309.178428</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07996662788927142</v>
+        <v>0.09433735909008907</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03669980220658049</v>
+        <v>0.04241696466925946</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4794300339.455857</v>
+        <v>4055767283.740155</v>
       </c>
       <c r="F64" t="n">
-        <v>0.12550769918787</v>
+        <v>0.1300799130503695</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02326006455837716</v>
+        <v>0.02239438876367509</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5471810406.582155</v>
+        <v>6005089379.297501</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1351618940522631</v>
+        <v>0.1398957351506925</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02174330668118161</v>
+        <v>0.02826149951867579</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3929232459.155908</v>
+        <v>5520842024.403663</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1305620443759326</v>
+        <v>0.1327606709775744</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04153221280627605</v>
+        <v>0.03806458030955971</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2967633230.732067</v>
+        <v>3221198678.70177</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09602170715863917</v>
+        <v>0.08771215890111829</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04228085940628887</v>
+        <v>0.03722867187469314</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5621419419.782878</v>
+        <v>4341142747.632815</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1348066917060469</v>
+        <v>0.1123196191896741</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03765271009245297</v>
+        <v>0.04181764623501894</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2087442174.187032</v>
+        <v>2138325826.794123</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1825358576316883</v>
+        <v>0.1665810176425719</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04246339174677036</v>
+        <v>0.04488737988574308</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3197289846.404169</v>
+        <v>2318883487.145409</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09430217300636337</v>
+        <v>0.09795603442989279</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03021265184847387</v>
+        <v>0.03560068497670909</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4068541173.800779</v>
+        <v>4046373661.752211</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1462680438619406</v>
+        <v>0.1307972395421091</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03262615348777493</v>
+        <v>0.03292455123288912</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2254889681.501431</v>
+        <v>2090226879.099065</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08507518149071677</v>
+        <v>0.08345451648273162</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03377479139890055</v>
+        <v>0.05213788241865598</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2895848478.720833</v>
+        <v>2922240849.296044</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07792042686057891</v>
+        <v>0.1001828837950593</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04154728112691078</v>
+        <v>0.03330845648986647</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3935055656.229469</v>
+        <v>3539633195.868246</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1329734827431826</v>
+        <v>0.1608593451474729</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03108380957391992</v>
+        <v>0.02160815333576774</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2170620568.078839</v>
+        <v>2439097787.818959</v>
       </c>
       <c r="F75" t="n">
-        <v>0.166479120600017</v>
+        <v>0.1489392978962866</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03630508654655716</v>
+        <v>0.02358126482339212</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4654053167.090704</v>
+        <v>5074840147.737332</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1162142545023462</v>
+        <v>0.08293418903521202</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02852778939967891</v>
+        <v>0.02416661439672821</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1750954807.234952</v>
+        <v>1787458289.865317</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1500316136294134</v>
+        <v>0.1230011540341312</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02628967659419663</v>
+        <v>0.02069143427286822</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3225108980.566411</v>
+        <v>3083120384.318334</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09748011283430034</v>
+        <v>0.08257320791304451</v>
       </c>
       <c r="G78" t="n">
-        <v>0.035684925095776</v>
+        <v>0.03955915597752177</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1594527589.30357</v>
+        <v>1626165464.152091</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1738921040216038</v>
+        <v>0.1183672889583884</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03882139910718543</v>
+        <v>0.0331374771660513</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3864330941.87775</v>
+        <v>4975922811.239125</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09552479981625298</v>
+        <v>0.07105981350428485</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03000541226621581</v>
+        <v>0.02530983542434647</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3135173431.581903</v>
+        <v>4281692502.873909</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09294235541424221</v>
+        <v>0.0936480471097241</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02694537496402605</v>
+        <v>0.0270492156240002</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4666782693.588365</v>
+        <v>4008610603.349226</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2045022912584048</v>
+        <v>0.1836791761019921</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01905275099027123</v>
+        <v>0.02955661581831176</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2189966606.29773</v>
+        <v>1954930163.404694</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1461249672968322</v>
+        <v>0.1035790391218151</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03013888556600572</v>
+        <v>0.0388606533338497</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2523143322.355933</v>
+        <v>2267741698.012604</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07766160440428228</v>
+        <v>0.09591147136413361</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04169644994776874</v>
+        <v>0.04258028194073922</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3547142422.659191</v>
+        <v>3624859082.99623</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1607066047119917</v>
+        <v>0.1560990651023942</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03452384138387053</v>
+        <v>0.03661934242553515</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2457441837.849678</v>
+        <v>1720631633.025205</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1240679093636805</v>
+        <v>0.1659838346123729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02137661094484645</v>
+        <v>0.02729987532905503</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1163721184.984183</v>
+        <v>1136121584.471507</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1294095766287756</v>
+        <v>0.1225553656877553</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04019343290867126</v>
+        <v>0.0432832799074193</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3172263090.978581</v>
+        <v>3392376865.944953</v>
       </c>
       <c r="F88" t="n">
-        <v>0.172799795340734</v>
+        <v>0.1077840831703544</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0373401879905821</v>
+        <v>0.03502391373279694</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3241849607.989668</v>
+        <v>2526091817.472825</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1105630994532343</v>
+        <v>0.1321626782590666</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03739310724841918</v>
+        <v>0.03933774297906916</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1456844198.841358</v>
+        <v>1685202121.355172</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040434153695898</v>
+        <v>0.09419616745189285</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03790686369477985</v>
+        <v>0.05030012097730867</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1426804788.20446</v>
+        <v>1880972082.45145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1564403238723737</v>
+        <v>0.188444419046693</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05238703906472838</v>
+        <v>0.05855368723082616</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2557390836.355377</v>
+        <v>1839559735.855002</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1089419960332444</v>
+        <v>0.06634128832214732</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03852571436107727</v>
+        <v>0.03676858881833412</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3594931830.563826</v>
+        <v>3374704732.011763</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1203788685177844</v>
+        <v>0.09320626620499034</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03586529869673502</v>
+        <v>0.04671013443994185</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2332141707.784129</v>
+        <v>2526492002.12103</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1032315615895518</v>
+        <v>0.134567503536753</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02785510838455271</v>
+        <v>0.03222012494244014</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2698774771.366355</v>
+        <v>2291803828.025158</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1249247332847532</v>
+        <v>0.1139987690974365</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03493011093783675</v>
+        <v>0.0350223544432782</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1866945811.495681</v>
+        <v>1463774597.923594</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1311009250558472</v>
+        <v>0.1187579267290418</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03607127007950058</v>
+        <v>0.03115377237133529</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4837049087.209231</v>
+        <v>5208374857.719826</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1654017489346754</v>
+        <v>0.1539553321787314</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02923250917429912</v>
+        <v>0.0191520402920857</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3118149119.860859</v>
+        <v>3347037036.618899</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08983366442137174</v>
+        <v>0.1082706308212484</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02146510098450682</v>
+        <v>0.02379979182032331</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2511278248.258693</v>
+        <v>2525095697.960916</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09775687393416324</v>
+        <v>0.1358830900170118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02163404809390158</v>
+        <v>0.03413486687893012</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3381450094.444613</v>
+        <v>4628892628.650312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1699846155594182</v>
+        <v>0.1142677693220249</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02084761154640192</v>
+        <v>0.01835329559791206</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2998329356.390522</v>
+        <v>2500253145.369178</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2171602377660547</v>
+        <v>0.2050204010037084</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05320177271874058</v>
+        <v>0.04610401928910457</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_352.xlsx
+++ b/output/fit_clients/fit_round_352.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1572036164.194425</v>
+        <v>1879801392.8489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1024724085978</v>
+        <v>0.0965396716155788</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02736929730206325</v>
+        <v>0.04335298340062362</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1844640832.780423</v>
+        <v>1646676870.091687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1726885585567875</v>
+        <v>0.1326643880155604</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05015759669458437</v>
+        <v>0.03691970447443238</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4669132172.964812</v>
+        <v>5001143836.062143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1484600508126221</v>
+        <v>0.1016905427330716</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02460273023513838</v>
+        <v>0.03044295893656393</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>182</v>
+      </c>
+      <c r="J4" t="n">
+        <v>351</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61.36108370814324</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3590798442.991488</v>
+        <v>3797290712.790835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07480586867054219</v>
+        <v>0.08045167006871387</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04778842598030048</v>
+        <v>0.04939040430424985</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>141</v>
+      </c>
+      <c r="J5" t="n">
+        <v>352</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2433866712.302883</v>
+        <v>1963815834.284607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1093045739494485</v>
+        <v>0.1383940035407218</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04301999973048917</v>
+        <v>0.03916738299523356</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2405638453.922202</v>
+        <v>2537086351.024641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06325171512037735</v>
+        <v>0.09837741654575995</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0361493804938354</v>
+        <v>0.04127720776264185</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3554126295.651915</v>
+        <v>3328516167.101211</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2210062485996996</v>
+        <v>0.2117198664109661</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02034202756266958</v>
+        <v>0.02142954030822327</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>92</v>
+      </c>
+      <c r="J8" t="n">
+        <v>351</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.53080514604845</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1533720200.52536</v>
+        <v>1835758156.928579</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1959221290082785</v>
+        <v>0.1630678267492338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02709408502100201</v>
+        <v>0.0232456826632122</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3728522680.505094</v>
+        <v>5384587965.166283</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1346213393084775</v>
+        <v>0.1715951452528161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05299548476005692</v>
+        <v>0.04894289755440819</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>297</v>
+      </c>
+      <c r="J10" t="n">
+        <v>351</v>
+      </c>
+      <c r="K10" t="n">
+        <v>62.0198993963426</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3768733067.627825</v>
+        <v>2703085957.257261</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724306651470731</v>
+        <v>0.1841568001438845</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03568578465581505</v>
+        <v>0.04832220509565745</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>145</v>
+      </c>
+      <c r="J11" t="n">
+        <v>349</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3003895821.929791</v>
+        <v>2616865933.815964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1595948307062206</v>
+        <v>0.1432803123654944</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04564911902658021</v>
+        <v>0.04961958516779417</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3845761418.137358</v>
+        <v>3247341023.13077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08243806879687639</v>
+        <v>0.07537138671010241</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02073501427092056</v>
+        <v>0.02427287762614415</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>182</v>
+      </c>
+      <c r="J13" t="n">
+        <v>351</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50.96041627364477</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3424114697.138032</v>
+        <v>3286867047.876382</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1254546879161372</v>
+        <v>0.1679081436215287</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04070988850429823</v>
+        <v>0.03584696931401026</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>73</v>
+      </c>
+      <c r="J14" t="n">
+        <v>349</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1228161942.019899</v>
+        <v>1365348371.788147</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08861886857879449</v>
+        <v>0.1086347381558192</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04857272672100048</v>
+        <v>0.03935522382705878</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2846382354.261783</v>
+        <v>1946823475.149564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1062095666241473</v>
+        <v>0.1075286544670581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03921856321934456</v>
+        <v>0.04881740650440226</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3448586101.162893</v>
+        <v>3413148910.024046</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198323559992947</v>
+        <v>0.1229544198499714</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03470197504518085</v>
+        <v>0.03859286841374288</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>166</v>
+      </c>
+      <c r="J17" t="n">
+        <v>351</v>
+      </c>
+      <c r="K17" t="n">
+        <v>55.02323709846816</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2700269901.679689</v>
+        <v>2645718714.325353</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1143023619577418</v>
+        <v>0.1142735372170876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02952181729522984</v>
+        <v>0.02469638958147125</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>87</v>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1264613313.613813</v>
+        <v>1301519983.944477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1419839544942331</v>
+        <v>0.1467971479726369</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01975944639869865</v>
+        <v>0.02748383501609388</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2592374697.904605</v>
+        <v>2565180421.998544</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1458599303852183</v>
+        <v>0.09915500577021043</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02289810611914589</v>
+        <v>0.03063120700282761</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2636187277.853154</v>
+        <v>2521657986.891664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09003642460126692</v>
+        <v>0.09119450919329461</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03112525692317612</v>
+        <v>0.0413343277785331</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2685524336.711261</v>
+        <v>2943099466.532259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1083117602232814</v>
+        <v>0.08874045935183572</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04057806530687584</v>
+        <v>0.0437633930731081</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>96</v>
+      </c>
+      <c r="J22" t="n">
+        <v>351</v>
+      </c>
+      <c r="K22" t="n">
+        <v>46.10127109566945</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1419243948.628781</v>
+        <v>962674296.9045928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.146558636033982</v>
+        <v>0.1502269407395218</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03672511587273759</v>
+        <v>0.0419782205685461</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3145129771.068808</v>
+        <v>2975221399.676134</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09051833447450229</v>
+        <v>0.09615131117804268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02512332724762655</v>
+        <v>0.02449835633854439</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>105</v>
+      </c>
+      <c r="J24" t="n">
+        <v>351</v>
+      </c>
+      <c r="K24" t="n">
+        <v>44.58489572241882</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1251262868.217812</v>
+        <v>1149189908.45463</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09961010182199086</v>
+        <v>0.099516008367493</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02436272942538008</v>
+        <v>0.02729209986483613</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1208234222.168795</v>
+        <v>1160557180.342053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1249724703922692</v>
+        <v>0.1177277097792472</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03147873010594524</v>
+        <v>0.02802069382004069</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3376731528.542116</v>
+        <v>2892898078.484184</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1351785068788451</v>
+        <v>0.1436523166504173</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02174040403115681</v>
+        <v>0.01983931494722972</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>147</v>
+      </c>
+      <c r="J27" t="n">
+        <v>351</v>
+      </c>
+      <c r="K27" t="n">
+        <v>38.78468128096738</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1421,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2545449510.121734</v>
+        <v>3616861657.470453</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09953029266821425</v>
+        <v>0.1278039318886445</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03400112743768783</v>
+        <v>0.04182565269806066</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>80</v>
+      </c>
+      <c r="J28" t="n">
+        <v>352</v>
+      </c>
+      <c r="K28" t="n">
+        <v>76.15533036416433</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1458,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4063715929.411412</v>
+        <v>4836717473.552539</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1316707834021437</v>
+        <v>0.1324013603106976</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04118581457901462</v>
+        <v>0.03408976383703718</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>314</v>
+      </c>
+      <c r="J29" t="n">
+        <v>351</v>
+      </c>
+      <c r="K29" t="n">
+        <v>63.54816870305901</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1501,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2278107361.224629</v>
+        <v>1448716149.670962</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1220092250561445</v>
+        <v>0.1152034403028556</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03293324734044443</v>
+        <v>0.02731964611732819</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1530,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1105001457.182221</v>
+        <v>1096229044.915663</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07465328626405057</v>
+        <v>0.1024470023662705</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04497574970395399</v>
+        <v>0.04480102663017664</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1565,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1703873281.161445</v>
+        <v>1417146510.362939</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07948746513419062</v>
+        <v>0.1123674532971209</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02995712916670218</v>
+        <v>0.03171998399414202</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1600,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2460847747.722395</v>
+        <v>2675415084.110213</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2061312065040746</v>
+        <v>0.1587180556740502</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04969057886914006</v>
+        <v>0.04548851643375977</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1635,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1012859814.081812</v>
+        <v>1249388479.793465</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0958379150678316</v>
+        <v>0.0897735911368935</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0238455531905086</v>
+        <v>0.02803022239727603</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1670,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>980705700.1844097</v>
+        <v>1024337191.02779</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1084308406540772</v>
+        <v>0.09083835518786748</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03702711966651283</v>
+        <v>0.03326493628258697</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1711,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2823588060.751599</v>
+        <v>2254003595.682901</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1731210607942391</v>
+        <v>0.176470413558181</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02254001247064419</v>
+        <v>0.02077354414861726</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1746,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2671118822.667899</v>
+        <v>2687846882.610288</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07335823029794644</v>
+        <v>0.07733116045607481</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02835216252443844</v>
+        <v>0.03743450515065658</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1775,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1938434274.585165</v>
+        <v>1918361316.328461</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054600454087157</v>
+        <v>0.07763475794534351</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02403431879504173</v>
+        <v>0.02549737151966158</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1810,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1427886353.481528</v>
+        <v>1379601607.82838</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1659604532743353</v>
+        <v>0.1353332797953879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02541666261038059</v>
+        <v>0.02045686911851494</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1845,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1544808660.24097</v>
+        <v>1757815370.219812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1255929394714291</v>
+        <v>0.1064658624759791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04977905562780069</v>
+        <v>0.0558675312901693</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1880,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2720741237.529589</v>
+        <v>2221280043.206287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1289425073812333</v>
+        <v>0.1099706007639537</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0423299570651027</v>
+        <v>0.04150840980142214</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1915,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3447540948.855753</v>
+        <v>3029484273.553627</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08398979077828625</v>
+        <v>0.1113211441111793</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0466429851522714</v>
+        <v>0.02868661777897858</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>153</v>
+      </c>
+      <c r="J42" t="n">
+        <v>350</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1956,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2946000356.273646</v>
+        <v>2213764031.376794</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1649342395016163</v>
+        <v>0.1378019616138702</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0158270698356792</v>
+        <v>0.02078243914003157</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1991,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1956887319.513566</v>
+        <v>2092710828.010563</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07915830257821395</v>
+        <v>0.0761377361070002</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02439282548636217</v>
+        <v>0.03574495646720547</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2509755295.994134</v>
+        <v>2474189834.542122</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1549699828533428</v>
+        <v>0.1934530677949736</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0562727687452879</v>
+        <v>0.0361794382956951</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4884849203.771799</v>
+        <v>5507708831.438521</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1664450265397237</v>
+        <v>0.1649333940112098</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04206225879096542</v>
+        <v>0.05995236841743164</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>211</v>
+      </c>
+      <c r="J46" t="n">
+        <v>352</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2096,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3947940234.121648</v>
+        <v>4716965051.722263</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1529137952726249</v>
+        <v>0.1924602214691414</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05708151727427822</v>
+        <v>0.045615748860106</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>157</v>
+      </c>
+      <c r="J47" t="n">
+        <v>352</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2131,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3898761332.584374</v>
+        <v>4325698696.725184</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07127433860616535</v>
+        <v>0.08097921816778021</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03583098848105046</v>
+        <v>0.0279338027602121</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>176</v>
+      </c>
+      <c r="J48" t="n">
+        <v>352</v>
+      </c>
+      <c r="K48" t="n">
+        <v>68.76190691739025</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1378146265.437829</v>
+        <v>1977010478.116178</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1657893391151584</v>
+        <v>0.1218644011083245</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03669924835927255</v>
+        <v>0.04448698787815394</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3231050162.65302</v>
+        <v>3474296269.861339</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1358652074482478</v>
+        <v>0.1603695124324912</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0443441242378773</v>
+        <v>0.03521987774763193</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>352</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2238,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1302751280.243885</v>
+        <v>1278732918.721435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1960364679992463</v>
+        <v>0.1532466186972096</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05223944229679553</v>
+        <v>0.03507666625038879</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2267,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3832664916.612671</v>
+        <v>4230791357.87787</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08589232164042433</v>
+        <v>0.1144041999249679</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04269010967421939</v>
+        <v>0.05787179095445814</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>210</v>
+      </c>
+      <c r="J52" t="n">
+        <v>351</v>
+      </c>
+      <c r="K52" t="n">
+        <v>60.72066719620054</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2310,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3446823979.229447</v>
+        <v>2386952967.400403</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1850734023012531</v>
+        <v>0.1481650219440065</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02912819593552559</v>
+        <v>0.03142387253819417</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>51</v>
+      </c>
+      <c r="J53" t="n">
+        <v>345</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2339,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3751493459.973285</v>
+        <v>3609396386.796604</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1549381739533355</v>
+        <v>0.138510592739779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03495483388557816</v>
+        <v>0.04858281277354518</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>185</v>
+      </c>
+      <c r="J54" t="n">
+        <v>352</v>
+      </c>
+      <c r="K54" t="n">
+        <v>65.09613488888058</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4887012951.54291</v>
+        <v>3647423213.368814</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1979182955367931</v>
+        <v>0.1739629337718001</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02459246460629993</v>
+        <v>0.01997544505152104</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>168</v>
+      </c>
+      <c r="J55" t="n">
+        <v>352</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1692249455.052972</v>
+        <v>1563801122.625498</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1400411991316108</v>
+        <v>0.1311883066344509</v>
       </c>
       <c r="G56" t="n">
-        <v>0.043619507001536</v>
+        <v>0.04097034744970174</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2446,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3239245115.990909</v>
+        <v>4245717294.450877</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1275625053279311</v>
+        <v>0.1569400269253931</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01870485003153273</v>
+        <v>0.01971419665106375</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>145</v>
+      </c>
+      <c r="J57" t="n">
+        <v>352</v>
+      </c>
+      <c r="K57" t="n">
+        <v>65.42058313777997</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2483,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1786292776.559508</v>
+        <v>1402494315.159215</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1612250431104359</v>
+        <v>0.1683642657264234</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03431810873593226</v>
+        <v>0.02656975379511418</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2518,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5072818293.604577</v>
+        <v>4394910508.269577</v>
       </c>
       <c r="F59" t="n">
-        <v>0.092312176364751</v>
+        <v>0.1196637861283341</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03946191289461653</v>
+        <v>0.03578261085710772</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>170</v>
+      </c>
+      <c r="J59" t="n">
+        <v>351</v>
+      </c>
+      <c r="K59" t="n">
+        <v>63.36279715762809</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2555,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3571206089.786216</v>
+        <v>3007772553.732364</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1903408259456407</v>
+        <v>0.1731363001375598</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02099901305247749</v>
+        <v>0.03040071578716835</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>62</v>
+      </c>
+      <c r="J60" t="n">
+        <v>349</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2590,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3160635480.90276</v>
+        <v>2446684672.706381</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1427852235714509</v>
+        <v>0.1165146752704401</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02214083412359602</v>
+        <v>0.02232690329663522</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2625,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1316499615.152377</v>
+        <v>2065400495.879429</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1262116567013718</v>
+        <v>0.1239309478552274</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04727276816846696</v>
+        <v>0.04239173094707868</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2666,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3741446309.178428</v>
+        <v>3819855742.390734</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09433735909008907</v>
+        <v>0.09107039994412694</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04241696466925946</v>
+        <v>0.04692284430121382</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>172</v>
+      </c>
+      <c r="J63" t="n">
+        <v>352</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2695,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4055767283.740155</v>
+        <v>3671959351.809981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1300799130503695</v>
+        <v>0.1551747554603184</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02239438876367509</v>
+        <v>0.03277560234737062</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>174</v>
+      </c>
+      <c r="J64" t="n">
+        <v>351</v>
+      </c>
+      <c r="K64" t="n">
+        <v>62.27557190106656</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2732,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6005089379.297501</v>
+        <v>4546094061.575492</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1398957351506925</v>
+        <v>0.1549389987443561</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02826149951867579</v>
+        <v>0.02885692081332156</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>270</v>
+      </c>
+      <c r="J65" t="n">
+        <v>352</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2767,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5520842024.403663</v>
+        <v>4969861988.916945</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1327606709775744</v>
+        <v>0.1412924746054571</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03806458030955971</v>
+        <v>0.04748130326823045</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>174</v>
+      </c>
+      <c r="J66" t="n">
+        <v>351</v>
+      </c>
+      <c r="K66" t="n">
+        <v>57.99873275450828</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2810,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3221198678.70177</v>
+        <v>2208152639.666105</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08771215890111829</v>
+        <v>0.0950116479794051</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03722867187469314</v>
+        <v>0.04453057876159133</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2845,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4341142747.632815</v>
+        <v>3956950570.42701</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1123196191896741</v>
+        <v>0.147009604726772</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04181764623501894</v>
+        <v>0.0425062297510608</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>191</v>
+      </c>
+      <c r="J68" t="n">
+        <v>352</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2874,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2138325826.794123</v>
+        <v>1837153086.309846</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1665810176425719</v>
+        <v>0.1370150813974072</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04488737988574308</v>
+        <v>0.03850889945852452</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2909,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2318883487.145409</v>
+        <v>2306428297.255025</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09795603442989279</v>
+        <v>0.07732940447636272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03560068497670909</v>
+        <v>0.04718356251863304</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>51</v>
+      </c>
+      <c r="J70" t="n">
+        <v>350</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2944,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4046373661.752211</v>
+        <v>3662171669.108884</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1307972395421091</v>
+        <v>0.1421715320516076</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03292455123288912</v>
+        <v>0.02409857304057633</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>257</v>
+      </c>
+      <c r="J71" t="n">
+        <v>351</v>
+      </c>
+      <c r="K71" t="n">
+        <v>63.4785813560956</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2987,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2090226879.099065</v>
+        <v>2206963312.684977</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08345451648273162</v>
+        <v>0.08150765007834718</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05213788241865598</v>
+        <v>0.05007201581269087</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3016,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2922240849.296044</v>
+        <v>3037055573.320844</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1001828837950593</v>
+        <v>0.08543112796426792</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03330845648986647</v>
+        <v>0.04463216962577162</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3051,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3539633195.868246</v>
+        <v>3485433515.211294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1608593451474729</v>
+        <v>0.1154050194190072</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02160815333576774</v>
+        <v>0.03311157104781531</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>95</v>
+      </c>
+      <c r="J74" t="n">
+        <v>352</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3092,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2439097787.818959</v>
+        <v>1982617799.944392</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1489392978962866</v>
+        <v>0.1242332256624925</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02358126482339212</v>
+        <v>0.0374790362767831</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3121,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5074840147.737332</v>
+        <v>4212954334.574825</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08293418903521202</v>
+        <v>0.08396346235396371</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02416661439672821</v>
+        <v>0.02328323563208069</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>166</v>
+      </c>
+      <c r="J76" t="n">
+        <v>352</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1787458289.865317</v>
+        <v>1801060351.216187</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1230011540341312</v>
+        <v>0.1439909435752925</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02069143427286822</v>
+        <v>0.02002106215607373</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3197,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3083120384.318334</v>
+        <v>4222660117.013269</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08257320791304451</v>
+        <v>0.08300322106053262</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03955915597752177</v>
+        <v>0.0512417649915227</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>175</v>
+      </c>
+      <c r="J78" t="n">
+        <v>352</v>
+      </c>
+      <c r="K78" t="n">
+        <v>64.98365358058832</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1626165464.152091</v>
+        <v>1827029590.390383</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1183672889583884</v>
+        <v>0.1386191227907993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0331374771660513</v>
+        <v>0.03597598100998358</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3263,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4975922811.239125</v>
+        <v>5260437217.362016</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07105981350428485</v>
+        <v>0.0892289750280031</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02530983542434647</v>
+        <v>0.03213373691597955</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>172</v>
+      </c>
+      <c r="J80" t="n">
+        <v>351</v>
+      </c>
+      <c r="K80" t="n">
+        <v>48.79863230529701</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3306,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4281692502.873909</v>
+        <v>4468506127.408822</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0936480471097241</v>
+        <v>0.09310173413465607</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0270492156240002</v>
+        <v>0.02326280058336003</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>162</v>
+      </c>
+      <c r="J81" t="n">
+        <v>352</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3335,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4008610603.349226</v>
+        <v>3661911402.207067</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1836791761019921</v>
+        <v>0.1948657054017008</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02955661581831176</v>
+        <v>0.02486150183299684</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>249</v>
+      </c>
+      <c r="J82" t="n">
+        <v>352</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1954930163.404694</v>
+        <v>1618675062.541954</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1035790391218151</v>
+        <v>0.1172316210824778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0388606533338497</v>
+        <v>0.03798061189248288</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3405,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2267741698.012604</v>
+        <v>2320485951.168025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09591147136413361</v>
+        <v>0.07716139913624644</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04258028194073922</v>
+        <v>0.05014992215125103</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3624859082.99623</v>
+        <v>3257953984.498305</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1560990651023942</v>
+        <v>0.1307508735373425</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03661934242553515</v>
+        <v>0.05551210982159877</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3481,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1720631633.025205</v>
+        <v>2311913713.690953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1659838346123729</v>
+        <v>0.1334086318806516</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02729987532905503</v>
+        <v>0.01773430580175622</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1136121584.471507</v>
+        <v>1073992496.344199</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1225553656877553</v>
+        <v>0.1863285757197368</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0432832799074193</v>
+        <v>0.03817574871948053</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3392376865.944953</v>
+        <v>3165032841.550021</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1077840831703544</v>
+        <v>0.1155006892236225</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03502391373279694</v>
+        <v>0.02565213748467826</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2526091817.472825</v>
+        <v>2739204772.360609</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1321626782590666</v>
+        <v>0.1532025995656437</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03933774297906916</v>
+        <v>0.04071137936742457</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1685202121.355172</v>
+        <v>1459306601.354397</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09419616745189285</v>
+        <v>0.09619531020797858</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05030012097730867</v>
+        <v>0.05202488175825683</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1880972082.45145</v>
+        <v>1608467272.404132</v>
       </c>
       <c r="F91" t="n">
-        <v>0.188444419046693</v>
+        <v>0.1324833640893413</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05855368723082616</v>
+        <v>0.05371366271581493</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1839559735.855002</v>
+        <v>2803956444.282292</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06634128832214732</v>
+        <v>0.07279979909818142</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03676858881833412</v>
+        <v>0.03503579497939362</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3374704732.011763</v>
+        <v>4079403299.024823</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09320626620499034</v>
+        <v>0.1080367965051035</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04671013443994185</v>
+        <v>0.03494410542947463</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>163</v>
+      </c>
+      <c r="J93" t="n">
+        <v>352</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2526492002.12103</v>
+        <v>2200527236.41845</v>
       </c>
       <c r="F94" t="n">
-        <v>0.134567503536753</v>
+        <v>0.1238803159893068</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03222012494244014</v>
+        <v>0.04197837202125162</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2291803828.025158</v>
+        <v>2961759553.812903</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1139987690974365</v>
+        <v>0.1065911840174654</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0350223544432782</v>
+        <v>0.04971110325307045</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1463774597.923594</v>
+        <v>1684785577.109811</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1187579267290418</v>
+        <v>0.09025604811101806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03115377237133529</v>
+        <v>0.03282395936650369</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5208374857.719826</v>
+        <v>4786339223.618381</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1539553321787314</v>
+        <v>0.1451542474269664</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0191520402920857</v>
+        <v>0.02043967962663853</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>181</v>
+      </c>
+      <c r="J97" t="n">
+        <v>352</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3347037036.618899</v>
+        <v>3054428309.661776</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1082706308212484</v>
+        <v>0.1253208158358867</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02379979182032331</v>
+        <v>0.03238679999692944</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>88</v>
+      </c>
+      <c r="J98" t="n">
+        <v>350</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2525095697.960916</v>
+        <v>2140080227.585384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1358830900170118</v>
+        <v>0.1350634924360656</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03413486687893012</v>
+        <v>0.02174657628386774</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4628892628.650312</v>
+        <v>4502204833.267955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1142677693220249</v>
+        <v>0.1435938329114342</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01835329559791206</v>
+        <v>0.0244012431269681</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>159</v>
+      </c>
+      <c r="J100" t="n">
+        <v>352</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2500253145.369178</v>
+        <v>2936500192.787843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2050204010037084</v>
+        <v>0.1440057338613893</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04610401928910457</v>
+        <v>0.04299041402938211</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
